--- a/biology/Zoologie/Cephalotes_liepini/Cephalotes_liepini.xlsx
+++ b/biology/Zoologie/Cephalotes_liepini/Cephalotes_liepini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes liepini est une espèce de fourmis arboricoles du genre Cephalotes[1][2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes liepini est une espèce de fourmis arboricoles du genre Cephalotes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce fut trouvée dans les États du Minas Gerais et du Goias, au Brésil[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce fut trouvée dans les États du Minas Gerais et du Goias, au Brésil.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[4]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[5].
-Cephalotes liepini partage certains attributs physiques avec Cephalotes kukulcan[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
+Cephalotes liepini partage certains attributs physiques avec Cephalotes kukulcan.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cephalotes liepini a été décrite en 1999 par l'entomologiste brésilienne Maria Lourdes de Andrade (d)[7] dans une publication coécrite avec l'entomologiste italien Cesare Baroni Urbani (d)[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cephalotes liepini a été décrite en 1999 par l'entomologiste brésilienne Maria Lourdes de Andrade (d) dans une publication coécrite avec l'entomologiste italien Cesare Baroni Urbani (d).
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, liepini,  est l'anagramme de pinelii, une espèce proche[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, liepini,  est l'anagramme de pinelii, une espèce proche.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Maria L. de Andrade et Cesare Baroni Urbani, « Diversity and adaptation in the ant genus Cephalotes, past and present (Hymenoptera, Formicidae) », Stuttgarter Beiträge zur Naturkunde (B), Musée d'histoire naturelle de Stuttgart, vol. 271,‎ 29 janvier 1999, p. 1-889 (ISSN 0341-0153, lire en ligne)</t>
         </is>
